--- a/Assignment 1/data/demand_bids.xlsx
+++ b/Assignment 1/data/demand_bids.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoya\Documents\00_DTU\02_Spring2023\46755 Renewables in el. markets\03_Assignments\Assignment1\46755\Assignment 1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Documents\GitHub\46755\Assignment 1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E2EA22-DDBC-4130-A4DD-44E3AA6CC155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2345C1-3BBB-483E-928D-80181BD18E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13344" yWindow="0" windowWidth="13632" windowHeight="16176" xr2:uid="{D9F3A7BA-CA64-439B-B9A8-1352469DAAC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9F3A7BA-CA64-439B-B9A8-1352469DAAC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:AA18"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,100 +606,100 @@
         <v>3.8</v>
       </c>
       <c r="D2">
-        <f ca="1">RANDBETWEEN(6,17)</f>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(10,50)</f>
+        <v>27</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:AA13" ca="1" si="0">RANDBETWEEN(6,17)</f>
-        <v>7</v>
+        <f t="shared" ref="E2:AA13" ca="1" si="0">RANDBETWEEN(10,50)</f>
+        <v>25</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="K2">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="O2">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="H2">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O2">
+      <c r="P2">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V2">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="P2">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="R2">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="S2">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="T2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="U2">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="V2">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
       <c r="W2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="X2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="Y2">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="Z2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AA2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
@@ -713,100 +713,100 @@
         <v>3.4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:S18" ca="1" si="1">RANDBETWEEN(6,17)</f>
-        <v>7</v>
+        <f t="shared" ref="D3:S18" ca="1" si="1">RANDBETWEEN(10,50)</f>
+        <v>14</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="F3">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="G3">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
       </c>
       <c r="H3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
       </c>
       <c r="I3">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
       </c>
       <c r="J3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="K3">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="L3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -821,99 +821,99 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="R4">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="S4">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="T4">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="U4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
       <c r="AA4">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -928,99 +928,99 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="I5">
+      <c r="R5">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K5">
+      <c r="S5">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T5">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="R5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="S5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="T5">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
       <c r="U5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="W5">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AA5">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
@@ -1035,99 +1035,99 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" ca="1" si="0"/>
         <v>15</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="R6">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S6">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="T6">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="U6">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="V6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W6">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="X6">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
@@ -1142,99 +1142,99 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G7">
+      <c r="J7">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="W7">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="R7">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="S7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="T7">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="U7">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V7">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="W7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
       <c r="X7">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AA7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
@@ -1249,99 +1249,99 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="AA8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
@@ -1356,99 +1356,99 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H9">
+      <c r="N9">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="P9">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="P9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AA9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
@@ -1463,99 +1463,99 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F10">
+      <c r="Q10">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="T10">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O10">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="P10">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="R10">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="S10">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="T10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
       <c r="U10">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="W10">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AA10">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
@@ -1570,99 +1570,99 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="U11">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="W11">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="X11">
+        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="T11">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="U11">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="V11">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="W11">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="X11">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
       <c r="Y11">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="Z11">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="AA11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
@@ -1677,27 +1677,27 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
@@ -1705,71 +1705,71 @@
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="M12">
+      <c r="W12">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="X12">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="N12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="R12">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S12">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="T12">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="V12">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="W12">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="X12">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
       <c r="Y12">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AA12">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
@@ -1784,99 +1784,99 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="G13:V18" ca="1" si="2">RANDBETWEEN(10,50)</f>
         <v>15</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
       </c>
       <c r="I13">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ref="W13:AA18" ca="1" si="3">RANDBETWEEN(10,50)</f>
+        <v>41</v>
+      </c>
+      <c r="X13">
+        <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
-      <c r="J13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="S13">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="T13">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y13">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ca="1" si="3"/>
         <v>14</v>
       </c>
-      <c r="U13">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="V13">
-        <f t="shared" ref="E13:AA18" ca="1" si="2">RANDBETWEEN(6,17)</f>
-        <v>14</v>
-      </c>
-      <c r="W13">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="X13">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
       <c r="AA13">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
@@ -1891,99 +1891,99 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P14">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="R14">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="S14">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z14">
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ca="1" si="3"/>
         <v>15</v>
-      </c>
-      <c r="T14">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="U14">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="V14">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="W14">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="X14">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
@@ -1998,99 +1998,99 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="O15">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="V15">
         <f t="shared" ca="1" si="2"/>
         <v>15</v>
       </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="2"/>
+      <c r="W15">
+        <f t="shared" ca="1" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" ca="1" si="3"/>
         <v>15</v>
       </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z15">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" ca="1" si="3"/>
         <v>15</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="R15">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="S15">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="T15">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="U15">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="V15">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="W15">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="X15">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
@@ -2105,99 +2105,99 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
       </c>
       <c r="I16">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
       </c>
       <c r="J16">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
       </c>
       <c r="K16">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
       </c>
       <c r="L16">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
       </c>
       <c r="M16">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
       </c>
       <c r="N16">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="O16">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="P16">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
       </c>
       <c r="Q16">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
       </c>
       <c r="R16">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
       </c>
       <c r="S16">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="W16">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
       </c>
       <c r="X16">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
       </c>
       <c r="Y16">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
       </c>
       <c r="Z16">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
       </c>
       <c r="AA16">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
@@ -2212,99 +2212,99 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="I17">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
       </c>
       <c r="J17">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="K17">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
       </c>
       <c r="L17">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
       </c>
       <c r="M17">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
       </c>
       <c r="N17">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
       </c>
       <c r="O17">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
       </c>
       <c r="P17">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
       </c>
       <c r="Q17">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
       </c>
       <c r="R17">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
       <c r="S17">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="W17">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
       </c>
       <c r="X17">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
       </c>
       <c r="Y17">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
       </c>
       <c r="Z17">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
       </c>
       <c r="AA17">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
@@ -2319,99 +2319,99 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
       <c r="I18">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
       </c>
       <c r="J18">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
       </c>
       <c r="K18">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ca="1" si="3"/>
         <v>10</v>
       </c>
-      <c r="L18">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="R18">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="S18">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="T18">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Y18">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
-      </c>
-      <c r="U18">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="V18">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="W18">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="X18">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment 1/data/demand_bids.xlsx
+++ b/Assignment 1/data/demand_bids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Documents\GitHub\46755\Assignment 1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2345C1-3BBB-483E-928D-80181BD18E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F2738B-753B-44DD-9EB9-4470F657FE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9F3A7BA-CA64-439B-B9A8-1352469DAAC3}"/>
   </bookViews>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECE582C-19AC-4862-A420-B8F8A8C7F997}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,100 +606,100 @@
         <v>3.8</v>
       </c>
       <c r="D2">
-        <f ca="1">RANDBETWEEN(10,50)</f>
-        <v>27</v>
+        <f ca="1">RANDBETWEEN(5,30)</f>
+        <v>14</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:AA13" ca="1" si="0">RANDBETWEEN(10,50)</f>
-        <v>25</v>
+        <f t="shared" ref="E2:AA13" ca="1" si="0">RANDBETWEEN(5,30)</f>
+        <v>7</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
-      <c r="L2">
+      <c r="P2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AA2">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="R2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="S2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="V2">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="W2">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="X2">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
@@ -713,100 +713,100 @@
         <v>3.4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:S18" ca="1" si="1">RANDBETWEEN(10,50)</f>
-        <v>14</v>
+        <f t="shared" ref="D3:S18" ca="1" si="1">RANDBETWEEN(5,30)</f>
+        <v>25</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
       <c r="X3">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="Y3">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Z3">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="AA3">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -821,99 +821,99 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="R4">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="S4">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="T4">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="U4">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
       <c r="V4">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AA4">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -928,99 +928,99 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="R5">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="S5">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="T5">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U5">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="V5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="W5">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="X5">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
       <c r="AA5">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
@@ -1035,99 +1035,99 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="R6">
+      <c r="S6">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="W6">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="S6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="T6">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="U6">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="V6">
+      <c r="X6">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Y6">
         <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
-      <c r="W6">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="X6">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
       <c r="Z6">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA6">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
@@ -1142,99 +1142,99 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="R7">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="S7">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="T7">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
       <c r="U7">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
-      <c r="Z7">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
       <c r="AA7">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
@@ -1249,99 +1249,99 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AA8">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
@@ -1356,99 +1356,99 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA9">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
@@ -1463,99 +1463,99 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="X10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="O10">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="P10">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="R10">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="S10">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="T10">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="U10">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="V10">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="W10">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="X10">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
       <c r="Z10">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AA10">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
@@ -1570,99 +1570,99 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="U11">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="W11">
+        <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
-      <c r="S11">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="T11">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="U11">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="V11">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="W11">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
       <c r="X11">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="Y11">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Z11">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA11">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
@@ -1677,99 +1677,99 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="J12">
+      <c r="L12">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="O12">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="K12">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ca="1" si="0"/>
         <v>24</v>
       </c>
-      <c r="S12">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="T12">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="U12">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="V12">
+      <c r="W12">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AA12">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
-      </c>
-      <c r="W12">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="X12">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
@@ -1784,99 +1784,99 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:V18" ca="1" si="2">RANDBETWEEN(5,30)</f>
         <v>11</v>
       </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H13">
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-      <c r="G13">
-        <f t="shared" ref="G13:V18" ca="1" si="2">RANDBETWEEN(10,50)</f>
-        <v>15</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
-      </c>
       <c r="I13">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="W13">
-        <f t="shared" ref="W13:AA18" ca="1" si="3">RANDBETWEEN(10,50)</f>
-        <v>41</v>
+        <f t="shared" ref="W13:AA18" ca="1" si="3">RANDBETWEEN(5,30)</f>
+        <v>27</v>
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AA13">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
@@ -1891,99 +1891,99 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
-      <c r="K14">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T14">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
-      <c r="N14">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="P14">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" ca="1" si="1"/>
+      <c r="V14">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ca="1" si="3"/>
         <v>17</v>
       </c>
-      <c r="R14">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="S14">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="T14">
-        <f t="shared" ca="1" si="2"/>
+      <c r="X14">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
-      <c r="U14">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="V14">
-        <f t="shared" ca="1" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="W14">
-        <f t="shared" ca="1" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="X14">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
       <c r="Z14">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AA14">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
@@ -1998,99 +1998,99 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="W15">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="X15">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Y15">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z15">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AA15">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
@@ -2105,99 +2105,99 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="X16">
+        <f t="shared" ca="1" si="3"/>
         <v>19</v>
       </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="N16">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="O16">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="P16">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="R16">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="S16">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="T16">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="U16">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="V16">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Y16">
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" ca="1" si="3"/>
         <v>29</v>
       </c>
-      <c r="W16">
-        <f t="shared" ca="1" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="X16">
-        <f t="shared" ca="1" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" ca="1" si="3"/>
-        <v>21</v>
-      </c>
       <c r="AA16">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
@@ -2212,99 +2212,99 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ca="1" si="1"/>
         <v>19</v>
       </c>
-      <c r="K17">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="L17">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="N17">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="O17">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="P17">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W17">
         <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="X17">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
-      <c r="X17">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
       <c r="Z17">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA17">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
@@ -2319,99 +2319,99 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="H18">
+      <c r="K18">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="N18">
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="I18">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="K18">
+      <c r="O18">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="R18">
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="L18">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="R18">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
       <c r="S18">
         <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ca="1" si="2"/>
         <v>23</v>
       </c>
-      <c r="T18">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="U18">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="V18">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
       <c r="W18">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="X18">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Y18">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Z18">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AA18">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
